--- a/xlsx_files/CS Sophomore.xlsx
+++ b/xlsx_files/CS Sophomore.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -108,11 +126,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,6 +567,13 @@
           <t>09:00</t>
         </is>
       </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Linear Algebra
+09:00-10:30
+room:White classroom: 202</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -550,6 +581,7 @@
           <t>09:15</t>
         </is>
       </c>
+      <c r="B7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -557,6 +589,7 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -564,6 +597,7 @@
           <t>09:45</t>
         </is>
       </c>
+      <c r="B9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -571,6 +605,7 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -578,6 +613,7 @@
           <t>10:15</t>
         </is>
       </c>
+      <c r="B11" s="7" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -599,12 +635,25 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Database Management Systems
+11:00-12:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Digital Logic &amp; Design
+11:00-12:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>DIGITAL LOGIC &amp; DESIGN
-TBD16
-White classroom
-11:00-12:30</t>
+          <t>Digital Logic &amp; Design
+11:00-12:30
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -614,6 +663,8 @@
           <t>11:15</t>
         </is>
       </c>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
@@ -622,6 +673,8 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
@@ -630,6 +683,8 @@
           <t>11:45</t>
         </is>
       </c>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
@@ -638,6 +693,8 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
@@ -646,6 +703,8 @@
           <t>12:15</t>
         </is>
       </c>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
       <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
@@ -696,12 +755,25 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>Database Management Systems
+14:00-15:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>History of Kyrgyzstan
+14:00-15:00
+room:Green classroom: 204</t>
+        </is>
+      </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>DATA STRUCTURE AND ALGORITHMS
-Muhammad Fayaz
-White classroom
-14:00-15:30</t>
+          <t>Data Structure and Algorithms
+14:00-15:30
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -711,6 +783,8 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
@@ -719,6 +793,8 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
@@ -727,6 +803,8 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="7" t="n"/>
       <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
@@ -735,6 +813,8 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
       <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
@@ -743,6 +823,8 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
       <c r="F31" s="7" t="n"/>
     </row>
     <row r="32">
@@ -765,12 +847,32 @@
           <t>16:00</t>
         </is>
       </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>History of Kyrgyzstan
+16:00-17:00
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Data Structure and Algorithms
+16:00-17:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>Linear Algebra
+16:00-17:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>LINEAR ALGEBRA
-Azmat Hussain
-White classroom
-16:00-17:30</t>
+          <t>Linear Algebra
+16:00-17:30
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -780,6 +882,9 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
@@ -788,6 +893,9 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
@@ -796,6 +904,9 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
     </row>
     <row r="38">
@@ -804,6 +915,9 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
     </row>
     <row r="39">
@@ -812,6 +926,9 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="7" t="n"/>
       <c r="F39" s="7" t="n"/>
     </row>
     <row r="40">
@@ -1004,17 +1121,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="F14:F19"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Sophomore.xlsx
+++ b/xlsx_files/CS Sophomore.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -72,6 +72,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0092D050"/>
         <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -131,10 +137,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,18 +644,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Database Management Systems
 11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Digital Logic &amp; Design
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>History of Kyrgyzstan
+11:00-12:00
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Database Management Systems
 11:00-12:30
-room:Red classroom: 201</t>
+room:Yellow classroom: 209</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
@@ -663,7 +679,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="D15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
     </row>
@@ -673,7 +690,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="D16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
     </row>
@@ -683,7 +701,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="D17" s="6" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="7" t="n"/>
       <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
     </row>
@@ -693,7 +712,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="D18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
     </row>
@@ -703,7 +722,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n"/>
+      <c r="B19" s="7" t="n"/>
       <c r="E19" s="7" t="n"/>
       <c r="F19" s="7" t="n"/>
     </row>
@@ -755,18 +774,11 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Database Management Systems
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Digital Logic &amp; Design
 14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E26" s="8" t="inlineStr">
-        <is>
-          <t>History of Kyrgyzstan
-14:00-15:00
-room:Green classroom: 204</t>
+room:Red classroom: 201</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
@@ -783,7 +795,6 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
     </row>
@@ -793,7 +804,6 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
     </row>
@@ -803,8 +813,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
@@ -813,7 +822,6 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="D30" s="6" t="n"/>
       <c r="E30" s="6" t="n"/>
       <c r="F30" s="6" t="n"/>
     </row>
@@ -823,7 +831,6 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="D31" s="7" t="n"/>
       <c r="E31" s="7" t="n"/>
       <c r="F31" s="7" t="n"/>
     </row>
@@ -847,18 +854,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>Data Structure and Algorithms
+16:00-17:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
         <is>
           <t>History of Kyrgyzstan
 16:00-17:00
 room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Data Structure and Algorithms
-16:00-17:30
-room:Red classroom: 201</t>
         </is>
       </c>
       <c r="D34" s="9" t="inlineStr">
@@ -904,8 +911,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="6" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="7" t="n"/>
       <c r="D37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
     </row>
@@ -1122,10 +1129,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C14:C17"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C34:C39"/>
     <mergeCell ref="F26:F31"/>
-    <mergeCell ref="D26:D31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
@@ -1138,7 +1145,7 @@
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Sophomore.xlsx
+++ b/xlsx_files/CS Sophomore.xlsx
@@ -70,14 +70,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -644,25 +644,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>Database Management Systems
 11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>History of Kyrgyzstan
 11:00-12:00
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>Database Management Systems
-11:00-12:30
-room:Yellow classroom: 209</t>
+room:Green classroom: 204</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
@@ -679,8 +672,7 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
     </row>
@@ -690,8 +682,7 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
     </row>
@@ -701,9 +692,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="E17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="7" t="n"/>
       <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
@@ -712,7 +702,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
     </row>
@@ -722,7 +712,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
       <c r="E19" s="7" t="n"/>
       <c r="F19" s="7" t="n"/>
     </row>
@@ -772,6 +762,13 @@
       <c r="A26" s="4" t="inlineStr">
         <is>
           <t>14:00</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>History of Kyrgyzstan
+14:00-15:00
+room:Green classroom: 204</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -795,6 +792,7 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="B27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
     </row>
@@ -804,6 +802,7 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="B28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
     </row>
@@ -813,6 +812,7 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="B29" s="7" t="n"/>
       <c r="E29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
     </row>
@@ -861,18 +861,18 @@
 room:Red classroom: 201</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>History of Kyrgyzstan
-16:00-17:00
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>Linear Algebra
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Data Structure and Algorithms
 16:00-17:30
 room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>Database Management Systems
+16:00-17:30
+room:Grey classroom: 203</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B37" s="6" t="n"/>
-      <c r="C37" s="7" t="n"/>
+      <c r="C37" s="6" t="n"/>
       <c r="D37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
     </row>
@@ -1129,7 +1129,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C14:C17"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C34:C39"/>
     <mergeCell ref="F26:F31"/>
@@ -1145,7 +1144,8 @@
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D14:D19"/>
     <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Sophomore.xlsx
+++ b/xlsx_files/CS Sophomore.xlsx
@@ -70,14 +70,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-        <bgColor rgb="00D0CECE"/>
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -644,18 +644,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Database Management Systems
 11:00-12:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr">
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>History of Kyrgyzstan
 11:00-12:00
-room:Green classroom: 204</t>
+room:Yellow classroom: 209</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
@@ -672,8 +672,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
@@ -682,8 +682,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
@@ -692,8 +692,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="7" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="7" t="n"/>
       <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
@@ -702,8 +702,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
       <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
@@ -712,8 +711,7 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
+      <c r="B19" s="7" t="n"/>
       <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
@@ -764,20 +762,27 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>History of Kyrgyzstan
-14:00-15:00
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Digital Logic &amp; Design
 14:00-15:30
 room:Red classroom: 201</t>
         </is>
       </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Data Structure and Algorithms
+14:00-15:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Digital Logic &amp; Design
+14:00-15:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Data Structure and Algorithms
@@ -792,7 +797,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
     </row>
@@ -802,7 +808,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
       <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
     </row>
@@ -812,7 +819,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
       <c r="E29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
     </row>
@@ -822,6 +830,8 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
       <c r="E30" s="6" t="n"/>
       <c r="F30" s="6" t="n"/>
     </row>
@@ -831,6 +841,8 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
       <c r="E31" s="7" t="n"/>
       <c r="F31" s="7" t="n"/>
     </row>
@@ -861,18 +873,18 @@
 room:Red classroom: 201</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Data Structure and Algorithms
-16:00-17:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>History of Kyrgyzstan
+16:00-17:00
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="inlineStr">
         <is>
           <t>Database Management Systems
 16:00-17:30
-room:Grey classroom: 203</t>
+room:Yellow classroom: 209</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -912,7 +924,7 @@
         </is>
       </c>
       <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="n"/>
+      <c r="C37" s="7" t="n"/>
       <c r="D37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
     </row>
@@ -923,7 +935,6 @@
         </is>
       </c>
       <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="n"/>
       <c r="D38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
     </row>
@@ -934,7 +945,6 @@
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
       <c r="D39" s="7" t="n"/>
       <c r="F39" s="7" t="n"/>
     </row>
@@ -1128,25 +1138,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="F26:F31"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Sophomore.xlsx
+++ b/xlsx_files/CS Sophomore.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -64,20 +64,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,18 +138,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,9 +584,23 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Linear Algebra
+          <t>State Exam on History of Kyrgyzstan
 09:00-10:30
-room:White classroom: 202</t>
+room:209</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Data Structure and Algorithms
+09:00-10:30
+room:202</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Data Structure and Algorithms
+09:00-10:30
+room:202</t>
         </is>
       </c>
     </row>
@@ -590,7 +610,9 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -598,7 +620,9 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -606,7 +630,9 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -614,7 +640,9 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -622,7 +650,9 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -644,25 +674,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Database Management Systems
 11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>History of Kyrgyzstan
-11:00-12:00
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
+room:104</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Linear Algebra
+11:00-12:30
+room:209</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>Digital Logic &amp; Design
 11:00-12:30
-room:White classroom: 202</t>
+room:201</t>
         </is>
       </c>
     </row>
@@ -672,9 +702,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="6" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -682,9 +712,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -692,9 +722,9 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="F17" s="6" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -702,8 +732,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="6" t="n"/>
-      <c r="F18" s="6" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -711,8 +742,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -762,32 +794,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>Digital Logic &amp; Design
 14:00-15:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Data Structure and Algorithms
+room:104</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>Database Management Systems
 14:00-15:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>Digital Logic &amp; Design
+room:104</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="inlineStr">
+        <is>
+          <t>Linear Algebra
 14:00-15:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>Data Structure and Algorithms
-14:00-15:30
-room:White classroom: 202</t>
+room:203</t>
         </is>
       </c>
     </row>
@@ -797,10 +822,9 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -808,10 +832,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
-      <c r="F28" s="6" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -819,10 +842,9 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
-      <c r="F29" s="6" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -830,10 +852,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
-      <c r="F30" s="6" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -841,10 +862,9 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -868,30 +888,23 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>Data Structure and Algorithms
-16:00-17:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
           <t>History of Kyrgyzstan
 16:00-17:00
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D34" s="8" t="inlineStr">
-        <is>
-          <t>Database Management Systems
-16:00-17:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>Linear Algebra
-16:00-17:30
-room:White classroom: 202</t>
+room:201</t>
+        </is>
+      </c>
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>Physical training
+16:00-18:00
+room:100</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>History of Kyrgyzstan
+16:00-17:00
+room:201</t>
         </is>
       </c>
     </row>
@@ -901,10 +914,9 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="6" t="n"/>
-      <c r="D35" s="6" t="n"/>
-      <c r="F35" s="6" t="n"/>
+      <c r="B35" s="7" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -912,10 +924,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="n"/>
-      <c r="D36" s="6" t="n"/>
-      <c r="F36" s="6" t="n"/>
+      <c r="B36" s="7" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -923,10 +934,9 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="6" t="n"/>
-      <c r="F37" s="6" t="n"/>
+      <c r="B37" s="8" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -934,9 +944,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="6" t="n"/>
-      <c r="D38" s="6" t="n"/>
-      <c r="F38" s="6" t="n"/>
+      <c r="B38" s="7" t="n"/>
+      <c r="D38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -944,9 +953,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="7" t="n"/>
+      <c r="B39" s="8" t="n"/>
       <c r="D39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -954,6 +962,7 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="D40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -961,6 +970,7 @@
           <t>17:45</t>
         </is>
       </c>
+      <c r="D41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1139,24 +1149,24 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C14:C17"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="D34:D41"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E34:E37"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="F26:F31"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="B34:B39"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C34:C37"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xlsx_files/CS Sophomore.xlsx
+++ b/xlsx_files/CS Sophomore.xlsx
@@ -58,14 +58,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -76,14 +70,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -138,15 +138,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -582,14 +585,7 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>State Exam on History of Kyrgyzstan
-09:00-10:30
-room:209</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Data Structure and Algorithms
 09:00-10:30
@@ -598,9 +594,16 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>Data Structure and Algorithms
+          <t>Database Management Systems
 09:00-10:30
-room:202</t>
+room:209</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Database Management Systems
+09:00-10:30
+room:104</t>
         </is>
       </c>
     </row>
@@ -610,9 +613,9 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -620,9 +623,9 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
       <c r="C8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -630,9 +633,9 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
       <c r="C9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -640,9 +643,9 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -650,9 +653,9 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -674,25 +677,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>Database Management Systems
-11:00-12:30
-room:104</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Linear Algebra
-11:00-12:30
-room:209</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>Digital Logic &amp; Design
 11:00-12:30
+room:203</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>History of Kyrgyzstan
+11:00-12:00
 room:201</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>State Exam on History of Kyrgyzstan
+11:00-12:30
+room:204</t>
         </is>
       </c>
     </row>
@@ -703,8 +706,8 @@
         </is>
       </c>
       <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -713,8 +716,8 @@
         </is>
       </c>
       <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -723,8 +726,8 @@
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
+      <c r="C17" s="8" t="n"/>
       <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -733,8 +736,8 @@
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
       <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -743,8 +746,8 @@
         </is>
       </c>
       <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -794,27 +797,20 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>Digital Logic &amp; Design
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Physical training
+14:00-16:00
+room:100</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>Linear Algebra
 14:00-15:30
 room:104</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>Database Management Systems
-14:00-15:30
-room:104</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="inlineStr">
-        <is>
-          <t>Linear Algebra
-14:00-15:30
-room:203</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -822,8 +818,7 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
+      <c r="B27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
@@ -832,8 +827,7 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
+      <c r="B28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -842,8 +836,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="B29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
@@ -852,8 +845,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
+      <c r="B30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
@@ -862,8 +854,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="D31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
+      <c r="B31" s="7" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -872,6 +863,7 @@
           <t>15:30</t>
         </is>
       </c>
+      <c r="B32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -879,6 +871,7 @@
           <t>15:45</t>
         </is>
       </c>
+      <c r="B33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -886,25 +879,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Linear Algebra
+16:00-17:30
+room:104</t>
+        </is>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
         <is>
           <t>History of Kyrgyzstan
 16:00-17:00
-room:201</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Physical training
-16:00-18:00
-room:100</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>History of Kyrgyzstan
-16:00-17:00
-room:201</t>
+room:204</t>
         </is>
       </c>
     </row>
@@ -914,9 +900,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="7" t="n"/>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -924,9 +909,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="7" t="n"/>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -934,9 +918,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="8" t="n"/>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="8" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="F37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -944,8 +927,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -953,8 +935,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="8" t="n"/>
-      <c r="D39" s="7" t="n"/>
+      <c r="C39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -962,7 +943,6 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="D40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -970,7 +950,6 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="D41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1148,26 +1127,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D26:D31"/>
+  <mergeCells count="18">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="C6:C11"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="E14:E19"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
